--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\How to DoE and ML\ML\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFF246C-12B5-4CE6-B69E-5658E344F534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46CCEEA-F4DF-40E6-83FD-A488D69FFDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" activeTab="3" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Design Parameters" sheetId="1" r:id="rId2"/>
     <sheet name="Responses" sheetId="3" r:id="rId3"/>
+    <sheet name="Other Parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="DO NOT TOUCH" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Features</t>
   </si>
@@ -115,12 +117,6 @@
     <t>Calculated target porosity (%)</t>
   </si>
   <si>
-    <t>Capacity (Cycle 10)</t>
-  </si>
-  <si>
-    <t>Capacity (Cycle 30)</t>
-  </si>
-  <si>
     <t>Response</t>
   </si>
   <si>
@@ -131,16 +127,52 @@
   </si>
   <si>
     <t>-1, 0, 1</t>
+  </si>
+  <si>
+    <t>C/5-6 (mAh/g)</t>
+  </si>
+  <si>
+    <t>10C (mAh/g)</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Starting model type</t>
+  </si>
+  <si>
+    <t>Quadratic</t>
+  </si>
+  <si>
+    <t>2FI</t>
+  </si>
+  <si>
+    <t>Term type</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Mixture complexity</t>
+  </si>
+  <si>
+    <t>Process complexity</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,18 +186,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,22 +208,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -211,6 +224,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,389 +596,389 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E2">
+        <v>161.26647034381304</v>
+      </c>
+      <c r="F2">
+        <v>72.041289257868158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E3">
+        <v>163.24631274749157</v>
+      </c>
+      <c r="F3">
+        <v>85.186684022091868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E4">
+        <v>163.61126514902989</v>
+      </c>
+      <c r="F4">
+        <v>89.828855429747492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E5">
+        <v>162.54669346536949</v>
+      </c>
+      <c r="F5">
+        <v>59.174622450856383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>120</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E6">
+        <v>163.13595123364951</v>
+      </c>
+      <c r="F6">
+        <v>81.773996381057302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>120</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E7">
+        <v>162.57257207035542</v>
+      </c>
+      <c r="F7">
+        <v>84.951190961672879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>145</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E8">
+        <v>160.60330891119415</v>
+      </c>
+      <c r="F8">
+        <v>30.733031121982521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>145</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E9">
+        <v>161.72268604850387</v>
+      </c>
+      <c r="F9">
+        <v>84.945758440531378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>145</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E10">
+        <v>162.29596943809688</v>
+      </c>
+      <c r="F10">
+        <v>69.421891154692503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>85</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>39.44</v>
+      </c>
+      <c r="E11">
+        <v>160.39388420675371</v>
+      </c>
+      <c r="F11">
+        <v>8.8965527938430003E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B12" s="7">
+        <v>85</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>33.83</v>
+      </c>
+      <c r="E12">
+        <v>162.23912776090114</v>
+      </c>
+      <c r="F12">
+        <v>21.636350153652174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B13" s="7">
         <v>85</v>
       </c>
-      <c r="C2" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C13" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28.22</v>
+      </c>
+      <c r="E13">
+        <v>162.16754539251556</v>
+      </c>
+      <c r="F13">
+        <v>11.601307424285451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>120</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="7">
         <v>39.44</v>
       </c>
-      <c r="E2" s="3">
-        <v>3.0462600000000002</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.03999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="E14">
+        <v>161.66590458807934</v>
+      </c>
+      <c r="F14">
+        <v>3.4966099123584069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>120</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D15" s="7">
         <v>33.83</v>
       </c>
-      <c r="E3" s="3">
-        <v>3.03517927408324</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3.0132792880546999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="E15">
+        <v>161.94140267693186</v>
+      </c>
+      <c r="F15">
+        <v>17.198715402852347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>120</v>
+      </c>
+      <c r="C16" s="7">
         <v>3.2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D16" s="7">
         <v>28.22</v>
       </c>
-      <c r="E4" s="3">
-        <v>2.98381837546818</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.9105024746953099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>120</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="E16">
+        <v>162.80112356445107</v>
+      </c>
+      <c r="F16">
+        <v>14.892530662050966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>145</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D17" s="7">
         <v>39.44</v>
       </c>
-      <c r="E5" s="3">
-        <v>3.1212955842637999</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.1065403121550199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>120</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E17">
+        <v>160.75407959775919</v>
+      </c>
+      <c r="F17">
+        <v>8.9214094531340604E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>145</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D18" s="7">
         <v>33.83</v>
       </c>
-      <c r="E6" s="3">
-        <v>3.1167148303715302</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.09818264933195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>120</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="E18">
+        <v>161.73770048700803</v>
+      </c>
+      <c r="F18">
+        <v>15.862730271587914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7">
         <v>3.2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D19" s="7">
         <v>28.22</v>
       </c>
-      <c r="E7" s="3">
-        <v>3.0952712199829699</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.07257799197256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>145</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>39.44</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3.0882200000000002</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.0830500000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>145</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="D9" s="2">
-        <v>33.83</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.07250208347843</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.05192747264458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>145</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>28.22</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.1600551448157699</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.1502923079660801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>85</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>39.44</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.5115258206016398</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4.1410412831624299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>85</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="D12" s="2">
-        <v>33.83</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.6042049394979703</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.6143984153123601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>85</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>28.22</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.5350999999999999</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4.3659499999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>120</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>39.44</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.6990732530011003</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4.6596415688545099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>120</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="D15" s="2">
-        <v>33.83</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4.6959293557760402</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4.6913105371387704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>120</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>28.22</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.6031919500813201</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4.5202210220588501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>145</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>39.44</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.52768642339149</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4.2326429319341896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>145</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="D18" s="2">
-        <v>33.83</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.6825706432094796</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4.6722077721239401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>145</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>28.22</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.6137800000000002</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4.5702499999999997</v>
+      <c r="E19">
+        <v>162.06572573839108</v>
+      </c>
+      <c r="F19">
+        <v>11.623511691296509</v>
       </c>
     </row>
   </sheetData>
@@ -970,18 +989,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A90CAD-67BE-406A-8BD7-81EDC587CCAA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="40.90625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -994,12 +1018,18 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
@@ -1008,12 +1038,18 @@
       <c r="D2" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
@@ -1022,12 +1058,18 @@
       <c r="D3" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
@@ -1036,8 +1078,22 @@
       <c r="D4" s="1">
         <v>40</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{69911F20-3846-406C-9C44-83ADD5D4F171}">
+      <formula1>"Linear,Quadratic,Cubic,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{E365AB81-AF3B-4DDA-A9DD-340913AC677F}">
+      <formula1>"Process,Mixture"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1045,43 +1101,174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A8F6C1-4570-407C-96BE-50A819E04C7D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="7"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{2F388B0D-E594-4681-B70F-E71CDD2CE433}">
+      <formula1>"Mean,Linear,2FI,3FI,Quadratic,Cubic,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1406A9D-C789-43CD-A386-937D09420C50}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22C07DCB-72FD-4B86-A08C-075EF3488F0D}">
+          <x14:formula1>
+            <xm:f>'DO NOT TOUCH'!$C$1:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5485C613-62DE-41D1-97A2-FC8CC688920F}">
+          <x14:formula1>
+            <xm:f>'DO NOT TOUCH'!B$1:B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC84E7C-0D08-4866-AC87-CF6E74E9A396}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="b">
+        <f>COUNTIF('Design Parameters'!E:E, "Mixture")&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(A1,"Linear","Not applicable")</f>
+        <v>Not applicable</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(A2,"Linear","Not applicable")</f>
+        <v>Linear</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="b">
+        <f>COUNTIF('Design Parameters'!E:E, "Process")&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(A1,"Quadratic","Not applicable")</f>
+        <v>Not applicable</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(A2,"Quadratic","Not applicable")</f>
+        <v>Quadratic</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="str">
+        <f>IF(A1,"Cubic","Not applicable")</f>
+        <v>Not applicable</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(A2,"Cubic","Not applicable")</f>
+        <v>Cubic</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3455ED19-1BD0-4F65-9E34-248DD2ECEDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505E8CA6-B55A-49D3-AB48-BE9F514299AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Design Parameters" sheetId="1" r:id="rId2"/>
-    <sheet name="Responses" sheetId="3" r:id="rId3"/>
+    <sheet name="Train Data" sheetId="4" r:id="rId1"/>
+    <sheet name="Test Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Design Parameters" sheetId="1" r:id="rId3"/>
+    <sheet name="Responses" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,6 +41,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={AF751126-B492-47A8-A21F-68667097EBC7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AF751126-B492-47A8-A21F-68667097EBC7}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Column names should be names for the features or responses. The subsequent rows should contain the actual data. Each row should basically be a single experiment. Add as many rows and columns as needed. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={B4CB8F19-F74F-49D3-B51E-B8AFA5AE1E35}</author>
   </authors>
   <commentList>
@@ -55,7 +74,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A129F280-6E28-46E6-B655-4ABBE0C15904}</author>
@@ -109,7 +128,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={63297DB1-226E-491F-970B-DCA494C9496F}</author>
@@ -143,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Features</t>
   </si>
@@ -164,13 +183,31 @@
   </si>
   <si>
     <t>Term type</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Roll temperature (°C)</t>
+  </si>
+  <si>
+    <t>Target density (g/cm3)</t>
+  </si>
+  <si>
+    <t>Calculated target porosity (%)</t>
+  </si>
+  <si>
+    <t>C/5-6 (mAh/g)</t>
+  </si>
+  <si>
+    <t>10C (mAh/g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,12 +221,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -575,13 +606,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-07-09T18:28:17.65" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{AF751126-B492-47A8-A21F-68667097EBC7}">
+    <text xml:space="preserve">Column names should be names for the features or responses. The subsequent rows should contain the actual data. Each row should basically be a single experiment. Add as many rows and columns as needed. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-07-09T18:28:17.65" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{B4CB8F19-F74F-49D3-B51E-B8AFA5AE1E35}">
     <text xml:space="preserve">Column names should be names for the features or responses. The subsequent rows should contain the actual data. Each row should basically be a single experiment. Add as many rows and columns as needed. </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-06-17T20:07:14.73" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{A129F280-6E28-46E6-B655-4ABBE0C15904}">
     <text>Should be single letters and CANNOT BE C (i.e. A, B, D, etc.)</text>
@@ -601,7 +640,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-07-09T18:33:32.98" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{63297DB1-226E-491F-970B-DCA494C9496F}">
     <text>Name of each response. Should match the names in the “Data” sheet</text>
@@ -619,22 +658,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2412BF-878C-45DB-8461-781C8212B1FA}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7017105-9951-4AAA-B498-721790E5798E}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -726,24 +777,6 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -752,11 +785,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2412BF-878C-45DB-8461-781C8212B1FA}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A90CAD-67BE-406A-8BD7-81EDC587CCAA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,12 +893,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A8F6C1-4570-407C-96BE-50A819E04C7D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505E8CA6-B55A-49D3-AB48-BE9F514299AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89758752-27F4-4DBE-9743-A9B4398000B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Train Data" sheetId="4" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Features</t>
   </si>
@@ -183,24 +183,6 @@
   </si>
   <si>
     <t>Term type</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Roll temperature (°C)</t>
-  </si>
-  <si>
-    <t>Target density (g/cm3)</t>
-  </si>
-  <si>
-    <t>Calculated target porosity (%)</t>
-  </si>
-  <si>
-    <t>C/5-6 (mAh/g)</t>
-  </si>
-  <si>
-    <t>10C (mAh/g)</t>
   </si>
 </sst>
 </file>
@@ -659,33 +641,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7017105-9951-4AAA-B498-721790E5798E}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A2:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -777,6 +747,24 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -789,30 +777,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -844,7 +820,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A8F6C1-4570-407C-96BE-50A819E04C7D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89758752-27F4-4DBE-9743-A9B4398000B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F871E-A47D-4034-AD3D-7D4D9097CB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
@@ -100,28 +100,31 @@
     Each row is the name of each feature. Should match the feature names in the “Data” sheet </t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    The minimum level of this feature.</t>
+    The minimum level of this feature.
+Only applicable to numerical features, will be ignored if feature is categorical,</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    The maximum level of this feature.</t>
+    The maximum level of this feature.
+Only applicable to numerical features, will be ignored if feature is categorical,</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
+    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Dropdown, denotes whether the feature is a Mixture or Process feature. When in doubt, set to Process.</t>
+    Dropdown, denotes whether the feature is a Mixture or Process feature. When in doubt, set to Process.
+Only applicable to numerical features, will be ignored if feature is categorical,</t>
       </text>
     </comment>
   </commentList>
@@ -162,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Features</t>
   </si>
@@ -183,6 +186,60 @@
   </si>
   <si>
     <t>Term type</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Roll temperature (°C)</t>
+  </si>
+  <si>
+    <t>Target density (g/cm3)</t>
+  </si>
+  <si>
+    <t>Calculated target porosity (%)</t>
+  </si>
+  <si>
+    <t>C/5-6 (mAh/g)</t>
+  </si>
+  <si>
+    <t>10C (mAh/g)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>-1,0,1</t>
+  </si>
+  <si>
+    <t>-1, 0, 1</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>Feature type</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>Categorical</t>
   </si>
 </sst>
 </file>
@@ -225,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,6 +303,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,14 +670,17 @@
   <threadedComment ref="B1" dT="2024-07-09T18:31:44.34" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BC7AD3A8-5E18-4A5C-9728-B3CD7668C3E2}">
     <text xml:space="preserve">Each row is the name of each feature. Should match the feature names in the “Data” sheet </text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-07-09T18:32:18.60" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
-    <text>The minimum level of this feature.</text>
+  <threadedComment ref="D1" dT="2024-07-09T18:32:18.60" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{53826AD9-B736-4EE5-941D-FCB297D9709B}">
+    <text>The minimum level of this feature.
+Only applicable to numerical features, will be ignored if feature is categorical,</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2024-07-09T18:32:26.48" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
-    <text>The maximum level of this feature.</text>
+  <threadedComment ref="E1" dT="2024-07-09T18:32:26.48" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BACBF89F-6AA0-4BCD-901B-3E077AF7EA4A}">
+    <text>The maximum level of this feature.
+Only applicable to numerical features, will be ignored if feature is categorical,</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2024-07-09T18:33:05.39" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
-    <text>Dropdown, denotes whether the feature is a Mixture or Process feature. When in doubt, set to Process.</text>
+  <threadedComment ref="F1" dT="2024-07-09T18:33:05.39" personId="{1DB282FF-D362-47DF-A85A-03995C31D022}" id="{BA8E9C76-46BD-44C8-981A-1CC2357C5CAF}">
+    <text>Dropdown, denotes whether the feature is a Mixture or Process feature. When in doubt, set to Process.
+Only applicable to numerical features, will be ignored if feature is categorical,</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -643,126 +706,348 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7017105-9951-4AAA-B498-721790E5798E}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>85</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>161.26647034381304</v>
+      </c>
+      <c r="F2">
+        <v>72.041289257868158</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>85</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>163.24631274749157</v>
+      </c>
+      <c r="F3">
+        <v>85.186684022091868</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>85</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>163.61126514902989</v>
+      </c>
+      <c r="F4">
+        <v>89.828855429747492</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>120</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>162.54669346536949</v>
+      </c>
+      <c r="F5">
+        <v>59.174622450856383</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>120</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>162.57257207035542</v>
+      </c>
+      <c r="F6">
+        <v>84.951190961672879</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>145</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>160.60330891119415</v>
+      </c>
+      <c r="F7">
+        <v>30.733031121982521</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>145</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>161.72268604850387</v>
+      </c>
+      <c r="F8">
+        <v>84.945758440531378</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <v>145</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>162.29596943809688</v>
+      </c>
+      <c r="F9">
+        <v>69.421891154692503</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>85</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>160.39388420675371</v>
+      </c>
+      <c r="F10">
+        <v>8.8965527938430003E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="7">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7">
+        <v>85</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>162.16754539251556</v>
+      </c>
+      <c r="F11">
+        <v>11.601307424285451</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="7">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>120</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>161.66590458807934</v>
+      </c>
+      <c r="F12">
+        <v>3.4966099123584069</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="7">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7">
+        <v>120</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>161.94140267693186</v>
+      </c>
+      <c r="F13">
+        <v>17.198715402852347</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="7">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7">
+        <v>120</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>162.80112356445107</v>
+      </c>
+      <c r="F14">
+        <v>14.892530662050966</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="7">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
+        <v>145</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>160.75407959775919</v>
+      </c>
+      <c r="F15">
+        <v>8.9214094531340604E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="7">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>145</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>161.73770048700803</v>
+      </c>
+      <c r="F16">
+        <v>15.862730271587914</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="7"/>
     </row>
   </sheetData>
@@ -777,36 +1062,90 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>163.13595123364951</v>
+      </c>
+      <c r="F2">
+        <v>81.773996381057302</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="7">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>162.23912776090114</v>
+      </c>
+      <c r="F3">
+        <v>21.636350153652174</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="7">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>145</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>162.06572573839108</v>
+      </c>
+      <c r="F4">
+        <v>11.623511691296509</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,22 +1156,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A90CAD-67BE-406A-8BD7-81EDC587CCAA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="40.90625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -840,28 +1180,67 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1">
+        <v>145</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{E365AB81-AF3B-4DDA-A9DD-340913AC677F}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{E365AB81-AF3B-4DDA-A9DD-340913AC677F}">
       <formula1>"Process,Mixture"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{BCCA44C2-9EE1-4675-8860-24289757B621}">
+      <formula1>"Numerical, Categorical"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,7 +1253,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,12 +1272,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F871E-A47D-4034-AD3D-7D4D9097CB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D1A9C-8BED-4507-BE5E-3E6B44D78DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Train Data" sheetId="4" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
     <sheet name="Design Parameters" sheetId="1" r:id="rId3"/>
     <sheet name="Responses" sheetId="3" r:id="rId4"/>
+    <sheet name="Misc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -165,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Features</t>
   </si>
@@ -188,58 +189,10 @@
     <t>Term type</t>
   </si>
   <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Roll temperature (°C)</t>
-  </si>
-  <si>
-    <t>Target density (g/cm3)</t>
-  </si>
-  <si>
-    <t>Calculated target porosity (%)</t>
-  </si>
-  <si>
-    <t>C/5-6 (mAh/g)</t>
-  </si>
-  <si>
-    <t>10C (mAh/g)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>-1,0,1</t>
-  </si>
-  <si>
-    <t>-1, 0, 1</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
-  <si>
     <t>Feature type</t>
   </si>
   <si>
-    <t>Numerical</t>
-  </si>
-  <si>
-    <t>Categorical</t>
+    <t>version</t>
   </si>
 </sst>
 </file>
@@ -706,331 +659,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7017105-9951-4AAA-B498-721790E5798E}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>85</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>161.26647034381304</v>
-      </c>
-      <c r="F2">
-        <v>72.041289257868158</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>85</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>163.24631274749157</v>
-      </c>
-      <c r="F3">
-        <v>85.186684022091868</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>85</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>163.61126514902989</v>
-      </c>
-      <c r="F4">
-        <v>89.828855429747492</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>120</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>162.54669346536949</v>
-      </c>
-      <c r="F5">
-        <v>59.174622450856383</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>120</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>162.57257207035542</v>
-      </c>
-      <c r="F6">
-        <v>84.951190961672879</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <v>145</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>160.60330891119415</v>
-      </c>
-      <c r="F7">
-        <v>30.733031121982521</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>145</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>161.72268604850387</v>
-      </c>
-      <c r="F8">
-        <v>84.945758440531378</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7">
-        <v>145</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>162.29596943809688</v>
-      </c>
-      <c r="F9">
-        <v>69.421891154692503</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7">
-        <v>85</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>160.39388420675371</v>
-      </c>
-      <c r="F10">
-        <v>8.8965527938430003E-4</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7">
-        <v>85</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>162.16754539251556</v>
-      </c>
-      <c r="F11">
-        <v>11.601307424285451</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7">
-        <v>120</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>161.66590458807934</v>
-      </c>
-      <c r="F12">
-        <v>3.4966099123584069</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7">
-        <v>120</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>161.94140267693186</v>
-      </c>
-      <c r="F13">
-        <v>17.198715402852347</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>120</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>162.80112356445107</v>
-      </c>
-      <c r="F14">
-        <v>14.892530662050966</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7">
-        <v>145</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>160.75407959775919</v>
-      </c>
-      <c r="F15">
-        <v>8.9214094531340604E-4</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>145</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>161.73770048700803</v>
-      </c>
-      <c r="F16">
-        <v>15.862730271587914</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
@@ -1062,90 +793,36 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>120</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>163.13595123364951</v>
-      </c>
-      <c r="F2">
-        <v>81.773996381057302</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7">
-        <v>85</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>162.23912776090114</v>
-      </c>
-      <c r="F3">
-        <v>21.636350153652174</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7">
-        <v>145</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>162.06572573839108</v>
-      </c>
-      <c r="F4">
-        <v>11.623511691296509</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1159,7 +836,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1193,46 +870,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>85</v>
-      </c>
-      <c r="E2" s="1">
-        <v>145</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1253,7 +900,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,23 +919,38 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CED2DB-40A5-4698-97EC-5128A3B9BBDD}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhidalgo\OneDrive\OneDrive - JLR\Projects\ML\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D1A9C-8BED-4507-BE5E-3E6B44D78DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45622436-0725-4292-A473-3E64E6E9881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Train Data" sheetId="4" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Features</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Linear</t>
   </si>
 </sst>
 </file>
@@ -663,9 +669,9 @@
       <selection activeCell="B5" sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -673,109 +679,109 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -796,9 +802,9 @@
       <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -806,19 +812,19 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -839,17 +845,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="40.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,15 +875,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
@@ -903,14 +909,14 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,11 +924,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
     </row>
@@ -934,15 +940,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CED2DB-40A5-4698-97EC-5128A3B9BBDD}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -950,7 +956,20 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{CD6CB0B3-A830-453E-942B-64F485FC9E02}">
+      <formula1>"Linear, 2FI, Quadratic"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc\Atmonia Dropbox\Marc Francis Hidalgo\Scripts\How to DoE and ML\ML\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jlrglobal-my.sharepoint.com/personal/mhidalgo_jaguarlandrover_com/Documents/Projects/ML/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D1A9C-8BED-4507-BE5E-3E6B44D78DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{45622436-0725-4292-A473-3E64E6E9881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49516A53-346F-4516-84E6-2DE28FC5A340}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{C1646789-F2F7-4596-96D5-A1743CEE8B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Train Data" sheetId="4" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Features</t>
   </si>
@@ -192,7 +192,10 @@
     <t>Feature type</t>
   </si>
   <si>
-    <t>version</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Linear</t>
   </si>
 </sst>
 </file>
@@ -663,9 +666,9 @@
       <selection activeCell="B5" sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -673,109 +676,109 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -796,9 +799,9 @@
       <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -806,19 +809,19 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -839,17 +842,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="40.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,15 +872,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
@@ -903,14 +906,14 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,11 +921,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
     </row>
@@ -937,20 +940,25 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1">
-        <v>0.2</v>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{CD6CB0B3-A830-453E-942B-64F485FC9E02}">
+      <formula1>"Linear, 2FI, Quadratic"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>